--- a/Day 3.xlsx
+++ b/Day 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\advent-of-code-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0D16A3-7453-4BB5-961C-D9421273ECE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CEE52B-40C7-4F5B-BC79-5F5B3A9ACC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{989C0A13-985C-4FA6-9407-5584F2A2775A}"/>
   </bookViews>
@@ -1430,7 +1430,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8395E1-8971-4C12-AAA3-7EE79C62A495}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
